--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bgn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>174.7894516666667</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H2">
-        <v>524.3683550000001</v>
+        <v>582.075272</v>
       </c>
       <c r="I2">
-        <v>0.04413101306928496</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J2">
-        <v>0.04413101306928495</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.249867</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N2">
-        <v>6.749601</v>
+        <v>6.947684</v>
       </c>
       <c r="O2">
-        <v>0.01621423513832461</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P2">
-        <v>0.01621423513832461</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q2">
-        <v>393.2530192529284</v>
+        <v>449.3416726744497</v>
       </c>
       <c r="R2">
-        <v>3539.277173276355</v>
+        <v>4044.075054070048</v>
       </c>
       <c r="S2">
-        <v>0.0007155506227978629</v>
+        <v>0.0007286284671203346</v>
       </c>
       <c r="T2">
-        <v>0.0007155506227978626</v>
+        <v>0.0007286284671203348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>174.7894516666667</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H3">
-        <v>524.3683550000001</v>
+        <v>582.075272</v>
       </c>
       <c r="I3">
-        <v>0.04413101306928496</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J3">
-        <v>0.04413101306928495</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.707891</v>
       </c>
       <c r="O3">
-        <v>0.02332078998021146</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P3">
-        <v>0.02332078998021146</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q3">
-        <v>565.6123149099228</v>
+        <v>627.8581438190391</v>
       </c>
       <c r="R3">
-        <v>5090.510834189306</v>
+        <v>5650.723294371352</v>
       </c>
       <c r="S3">
-        <v>0.001029170087402762</v>
+        <v>0.001018101246156459</v>
       </c>
       <c r="T3">
-        <v>0.001029170087402761</v>
+        <v>0.001018101246156459</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>174.7894516666667</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H4">
-        <v>524.3683550000001</v>
+        <v>582.075272</v>
       </c>
       <c r="I4">
-        <v>0.04413101306928496</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J4">
-        <v>0.04413101306928495</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.69315599999999</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N4">
-        <v>146.079468</v>
+        <v>274.464523</v>
       </c>
       <c r="O4">
-        <v>0.3509195348041114</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P4">
-        <v>0.3509195348041114</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q4">
-        <v>8511.050037159459</v>
+        <v>17751.00131995281</v>
       </c>
       <c r="R4">
-        <v>76599.45033443514</v>
+        <v>159759.0118795753</v>
       </c>
       <c r="S4">
-        <v>0.01548643457670764</v>
+        <v>0.02878407605648211</v>
       </c>
       <c r="T4">
-        <v>0.01548643457670764</v>
+        <v>0.02878407605648211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>174.7894516666667</v>
+        <v>194.0250906666667</v>
       </c>
       <c r="H5">
-        <v>524.3683550000001</v>
+        <v>582.075272</v>
       </c>
       <c r="I5">
-        <v>0.04413101306928496</v>
+        <v>0.04827281913040843</v>
       </c>
       <c r="J5">
-        <v>0.04413101306928495</v>
+        <v>0.04827281913040844</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1183283333333333</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N5">
-        <v>0.354985</v>
+        <v>169.175249</v>
       </c>
       <c r="O5">
-        <v>0.0008527630389675126</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P5">
-        <v>0.0008527630389675126</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q5">
-        <v>20.68254449996389</v>
+        <v>10941.41434192697</v>
       </c>
       <c r="R5">
-        <v>186.142900499675</v>
+        <v>98472.72907734274</v>
       </c>
       <c r="S5">
-        <v>3.763329681767845E-05</v>
+        <v>0.01774201336064953</v>
       </c>
       <c r="T5">
-        <v>3.763329681767845E-05</v>
+        <v>0.01774201336064953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>174.7894516666667</v>
+        <v>3721.989909</v>
       </c>
       <c r="H6">
-        <v>524.3683550000001</v>
+        <v>11165.969727</v>
       </c>
       <c r="I6">
-        <v>0.04413101306928496</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J6">
-        <v>0.04413101306928495</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.46143500000001</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N6">
-        <v>253.384305</v>
+        <v>6.947684</v>
       </c>
       <c r="O6">
-        <v>0.608692677038385</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P6">
-        <v>0.608692677038385</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q6">
-        <v>14762.96791062981</v>
+        <v>8619.73657964025</v>
       </c>
       <c r="R6">
-        <v>132866.7111956683</v>
+        <v>77577.62921676226</v>
       </c>
       <c r="S6">
-        <v>0.02686222448555902</v>
+        <v>0.01397730465020694</v>
       </c>
       <c r="T6">
-        <v>0.02686222448555901</v>
+        <v>0.01397730465020694</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>11165.969727</v>
       </c>
       <c r="I7">
-        <v>0.9397316814693693</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J7">
-        <v>0.9397316814693691</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.249867</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N7">
-        <v>6.749601</v>
+        <v>9.707891</v>
       </c>
       <c r="O7">
-        <v>0.01621423513832461</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P7">
-        <v>0.01621423513832461</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q7">
-        <v>8373.982270592103</v>
+        <v>12044.22411322397</v>
       </c>
       <c r="R7">
-        <v>75365.84043532892</v>
+        <v>108398.0170190158</v>
       </c>
       <c r="S7">
-        <v>0.01523703045027752</v>
+        <v>0.01953027080938081</v>
       </c>
       <c r="T7">
-        <v>0.01523703045027751</v>
+        <v>0.01953027080938082</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>11165.969727</v>
       </c>
       <c r="I8">
-        <v>0.9397316814693693</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J8">
-        <v>0.9397316814693691</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.235963666666667</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N8">
-        <v>9.707891</v>
+        <v>274.464523</v>
       </c>
       <c r="O8">
-        <v>0.02332078998021146</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P8">
-        <v>0.02332078998021146</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q8">
-        <v>12044.22411322397</v>
+        <v>340518.0616614994</v>
       </c>
       <c r="R8">
-        <v>108398.0170190158</v>
+        <v>3064662.554953495</v>
       </c>
       <c r="S8">
-        <v>0.02191528518129813</v>
+        <v>0.5521659093367992</v>
       </c>
       <c r="T8">
-        <v>0.02191528518129813</v>
+        <v>0.5521659093367992</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>11165.969727</v>
       </c>
       <c r="I9">
-        <v>0.9397316814693693</v>
+        <v>0.9260191301290788</v>
       </c>
       <c r="J9">
-        <v>0.9397316814693691</v>
+        <v>0.9260191301290789</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.69315599999999</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N9">
-        <v>146.079468</v>
+        <v>169.175249</v>
       </c>
       <c r="O9">
-        <v>0.3509195348041114</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P9">
-        <v>0.3509195348041114</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q9">
-        <v>181235.4352693628</v>
+        <v>209889.5232101874</v>
       </c>
       <c r="R9">
-        <v>1631118.917424265</v>
+        <v>1889005.708891687</v>
       </c>
       <c r="S9">
-        <v>0.3297702045019165</v>
+        <v>0.3403456453326918</v>
       </c>
       <c r="T9">
-        <v>0.3297702045019164</v>
+        <v>0.3403456453326919</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3721.989909</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H10">
-        <v>11165.969727</v>
+        <v>12.205261</v>
       </c>
       <c r="I10">
-        <v>0.9397316814693693</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J10">
-        <v>0.9397316814693691</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1183283333333333</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N10">
-        <v>0.354985</v>
+        <v>6.947684</v>
       </c>
       <c r="O10">
-        <v>0.0008527630389675126</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P10">
-        <v>0.0008527630389675126</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q10">
-        <v>440.416862615455</v>
+        <v>9.422032951724887</v>
       </c>
       <c r="R10">
-        <v>3963.751763539095</v>
+        <v>84.798296565524</v>
       </c>
       <c r="S10">
-        <v>0.0008013684445038698</v>
+        <v>1.527826561447469E-05</v>
       </c>
       <c r="T10">
-        <v>0.0008013684445038698</v>
+        <v>1.527826561447469E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3721.989909</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H11">
-        <v>11165.969727</v>
+        <v>12.205261</v>
       </c>
       <c r="I11">
-        <v>0.9397316814693693</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J11">
-        <v>0.9397316814693691</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.46143500000001</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N11">
-        <v>253.384305</v>
+        <v>9.707891</v>
       </c>
       <c r="O11">
-        <v>0.608692677038385</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P11">
-        <v>0.608692677038385</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q11">
-        <v>314364.6087696594</v>
+        <v>13.16526037939455</v>
       </c>
       <c r="R11">
-        <v>2829281.478926935</v>
+        <v>118.487343414551</v>
       </c>
       <c r="S11">
-        <v>0.5720077928913733</v>
+        <v>2.134808336912967E-05</v>
       </c>
       <c r="T11">
-        <v>0.5720077928913733</v>
+        <v>2.134808336912967E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.837161</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H12">
-        <v>2.511483</v>
+        <v>12.205261</v>
       </c>
       <c r="I12">
-        <v>0.0002113672345774699</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J12">
-        <v>0.0002113672345774698</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2.249867</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N12">
-        <v>6.749601</v>
+        <v>274.464523</v>
       </c>
       <c r="O12">
-        <v>0.01621423513832461</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P12">
-        <v>0.01621423513832461</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q12">
-        <v>1.883500907587</v>
+        <v>372.2123487172781</v>
       </c>
       <c r="R12">
-        <v>16.951508168283</v>
+        <v>3349.911138455503</v>
       </c>
       <c r="S12">
-        <v>3.427158041976513E-06</v>
+        <v>0.0006035596731434673</v>
       </c>
       <c r="T12">
-        <v>3.427158041976511E-06</v>
+        <v>0.0006035596731434673</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.837161</v>
+        <v>4.068420333333333</v>
       </c>
       <c r="H13">
-        <v>2.511483</v>
+        <v>12.205261</v>
       </c>
       <c r="I13">
-        <v>0.0002113672345774699</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="J13">
-        <v>0.0002113672345774698</v>
+        <v>0.001012209906577904</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.235963666666667</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N13">
-        <v>9.707891</v>
+        <v>169.175249</v>
       </c>
       <c r="O13">
-        <v>0.02332078998021146</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P13">
-        <v>0.02332078998021146</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q13">
-        <v>2.709022579150334</v>
+        <v>229.4253409761099</v>
       </c>
       <c r="R13">
-        <v>24.381203212353</v>
+        <v>2064.828068784989</v>
       </c>
       <c r="S13">
-        <v>4.929250886279265E-06</v>
+        <v>0.000372023884450832</v>
       </c>
       <c r="T13">
-        <v>4.929250886279263E-06</v>
+        <v>0.000372023884450832</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.837161</v>
+        <v>95.39550266666667</v>
       </c>
       <c r="H14">
-        <v>2.511483</v>
+        <v>286.186508</v>
       </c>
       <c r="I14">
-        <v>0.0002113672345774699</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="J14">
-        <v>0.0002113672345774698</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,33 +1302,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>48.69315599999999</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N14">
-        <v>146.079468</v>
+        <v>6.947684</v>
       </c>
       <c r="O14">
-        <v>0.3509195348041114</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P14">
-        <v>0.3509195348041114</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q14">
-        <v>40.764011170116</v>
+        <v>220.9259358497191</v>
       </c>
       <c r="R14">
-        <v>366.876100531044</v>
+        <v>1988.333422647472</v>
       </c>
       <c r="S14">
-        <v>7.417289163075722E-05</v>
+        <v>0.0003582417028610028</v>
       </c>
       <c r="T14">
-        <v>7.41728916307572E-05</v>
+        <v>0.0003582417028610028</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,61 +1346,61 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.837161</v>
+        <v>95.39550266666667</v>
       </c>
       <c r="H15">
-        <v>2.511483</v>
+        <v>286.186508</v>
       </c>
       <c r="I15">
-        <v>0.0002113672345774699</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="J15">
-        <v>0.0002113672345774698</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1183283333333333</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N15">
-        <v>0.354985</v>
+        <v>9.707891</v>
       </c>
       <c r="O15">
-        <v>0.0008527630389675126</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P15">
-        <v>0.0008527630389675126</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q15">
-        <v>0.09905986586166667</v>
+        <v>308.6963805927365</v>
       </c>
       <c r="R15">
-        <v>0.891538792755</v>
+        <v>2778.267425334628</v>
       </c>
       <c r="S15">
-        <v>1.802461652964423E-07</v>
+        <v>0.0005005655701999406</v>
       </c>
       <c r="T15">
-        <v>1.802461652964423E-07</v>
+        <v>0.0005005655701999406</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.837161</v>
+        <v>95.39550266666667</v>
       </c>
       <c r="H16">
-        <v>2.511483</v>
+        <v>286.186508</v>
       </c>
       <c r="I16">
-        <v>0.0002113672345774699</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="J16">
-        <v>0.0002113672345774698</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.46143500000001</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N16">
-        <v>253.384305</v>
+        <v>274.464523</v>
       </c>
       <c r="O16">
-        <v>0.608692677038385</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P16">
-        <v>0.608692677038385</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q16">
-        <v>70.70781938603501</v>
+        <v>8727.560378583965</v>
       </c>
       <c r="R16">
-        <v>636.3703744743151</v>
+        <v>78548.04340725568</v>
       </c>
       <c r="S16">
-        <v>0.0001286576878531604</v>
+        <v>0.0141521459661166</v>
       </c>
       <c r="T16">
-        <v>0.0001286576878531604</v>
+        <v>0.01415214596611661</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.74316766666666</v>
+        <v>95.39550266666667</v>
       </c>
       <c r="H17">
-        <v>185.229503</v>
+        <v>286.186508</v>
       </c>
       <c r="I17">
-        <v>0.01558897584067627</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="J17">
-        <v>0.01558897584067626</v>
+        <v>0.02373409454550267</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>2.249867</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N17">
-        <v>6.749601</v>
+        <v>169.175249</v>
       </c>
       <c r="O17">
-        <v>0.01621423513832461</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P17">
-        <v>0.01621423513832461</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q17">
-        <v>138.9139154087003</v>
+        <v>5379.5193057045</v>
       </c>
       <c r="R17">
-        <v>1250.225238678303</v>
+        <v>48415.6737513405</v>
       </c>
       <c r="S17">
-        <v>0.0002527633198463866</v>
+        <v>0.008723141306325125</v>
       </c>
       <c r="T17">
-        <v>0.0002527633198463865</v>
+        <v>0.008723141306325127</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>61.74316766666666</v>
+        <v>3.865589666666666</v>
       </c>
       <c r="H18">
-        <v>185.229503</v>
+        <v>11.596769</v>
       </c>
       <c r="I18">
-        <v>0.01558897584067627</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="J18">
-        <v>0.01558897584067626</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.235963666666667</v>
+        <v>2.315894666666666</v>
       </c>
       <c r="N18">
-        <v>9.707891</v>
+        <v>6.947684</v>
       </c>
       <c r="O18">
-        <v>0.02332078998021146</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="P18">
-        <v>0.02332078998021146</v>
+        <v>0.01509396965509625</v>
       </c>
       <c r="Q18">
-        <v>199.7986472342414</v>
+        <v>8.952298492555109</v>
       </c>
       <c r="R18">
-        <v>1798.187825108173</v>
+        <v>80.57068643299598</v>
       </c>
       <c r="S18">
-        <v>0.0003635472315870016</v>
+        <v>1.451656929349614E-05</v>
       </c>
       <c r="T18">
-        <v>0.0003635472315870015</v>
+        <v>1.451656929349614E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>61.74316766666666</v>
+        <v>3.865589666666666</v>
       </c>
       <c r="H19">
-        <v>185.229503</v>
+        <v>11.596769</v>
       </c>
       <c r="I19">
-        <v>0.01558897584067627</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="J19">
-        <v>0.01558897584067626</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.69315599999999</v>
+        <v>3.235963666666667</v>
       </c>
       <c r="N19">
-        <v>146.079468</v>
+        <v>9.707891</v>
       </c>
       <c r="O19">
-        <v>0.3509195348041114</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="P19">
-        <v>0.3509195348041114</v>
+        <v>0.02109056948603046</v>
       </c>
       <c r="Q19">
-        <v>3006.469695127156</v>
+        <v>12.50890771157544</v>
       </c>
       <c r="R19">
-        <v>27058.2272561444</v>
+        <v>112.580169404179</v>
       </c>
       <c r="S19">
-        <v>0.005470476150082648</v>
+        <v>2.02837769241099E-05</v>
       </c>
       <c r="T19">
-        <v>0.005470476150082646</v>
+        <v>2.02837769241099E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,51 +1656,51 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>61.74316766666666</v>
+        <v>3.865589666666666</v>
       </c>
       <c r="H20">
-        <v>185.229503</v>
+        <v>11.596769</v>
       </c>
       <c r="I20">
-        <v>0.01558897584067627</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="J20">
-        <v>0.01558897584067626</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1183283333333333</v>
+        <v>91.48817433333333</v>
       </c>
       <c r="N20">
-        <v>0.354985</v>
+        <v>274.464523</v>
       </c>
       <c r="O20">
-        <v>0.0008527630389675126</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="P20">
-        <v>0.0008527630389675126</v>
+        <v>0.5962791603018311</v>
       </c>
       <c r="Q20">
-        <v>7.305966124717221</v>
+        <v>353.6557413251318</v>
       </c>
       <c r="R20">
-        <v>65.753695122455</v>
+        <v>3182.901671926186</v>
       </c>
       <c r="S20">
-        <v>1.329370241228623E-05</v>
+        <v>0.0005734692692897181</v>
       </c>
       <c r="T20">
-        <v>1.329370241228623E-05</v>
+        <v>0.0005734692692897181</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>61.74316766666666</v>
+        <v>3.865589666666666</v>
       </c>
       <c r="H21">
-        <v>185.229503</v>
+        <v>11.596769</v>
       </c>
       <c r="I21">
-        <v>0.01558897584067627</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="J21">
-        <v>0.01558897584067626</v>
+        <v>0.0009617462884321383</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.46143500000001</v>
+        <v>56.39174966666667</v>
       </c>
       <c r="N21">
-        <v>253.384305</v>
+        <v>169.175249</v>
       </c>
       <c r="O21">
-        <v>0.608692677038385</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="P21">
-        <v>0.608692677038385</v>
+        <v>0.3675363005570422</v>
       </c>
       <c r="Q21">
-        <v>5214.916542572269</v>
+        <v>217.9873647967201</v>
       </c>
       <c r="R21">
-        <v>46934.24888315042</v>
+        <v>1961.886283170481</v>
       </c>
       <c r="S21">
-        <v>0.009488895436747946</v>
+        <v>0.0003534766729248142</v>
       </c>
       <c r="T21">
-        <v>0.009488895436747944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>1.334605</v>
-      </c>
-      <c r="H22">
-        <v>4.003814999999999</v>
-      </c>
-      <c r="I22">
-        <v>0.0003369623860921186</v>
-      </c>
-      <c r="J22">
-        <v>0.0003369623860921186</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>2.249867</v>
-      </c>
-      <c r="N22">
-        <v>6.749601</v>
-      </c>
-      <c r="O22">
-        <v>0.01621423513832461</v>
-      </c>
-      <c r="P22">
-        <v>0.01621423513832461</v>
-      </c>
-      <c r="Q22">
-        <v>3.002683747535</v>
-      </c>
-      <c r="R22">
-        <v>27.024153727815</v>
-      </c>
-      <c r="S22">
-        <v>5.463587360868534E-06</v>
-      </c>
-      <c r="T22">
-        <v>5.463587360868533E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>1.334605</v>
-      </c>
-      <c r="H23">
-        <v>4.003814999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.0003369623860921186</v>
-      </c>
-      <c r="J23">
-        <v>0.0003369623860921186</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>3.235963666666667</v>
-      </c>
-      <c r="N23">
-        <v>9.707891</v>
-      </c>
-      <c r="O23">
-        <v>0.02332078998021146</v>
-      </c>
-      <c r="P23">
-        <v>0.02332078998021146</v>
-      </c>
-      <c r="Q23">
-        <v>4.318733289351666</v>
-      </c>
-      <c r="R23">
-        <v>38.86859960416499</v>
-      </c>
-      <c r="S23">
-        <v>7.858229037285225E-06</v>
-      </c>
-      <c r="T23">
-        <v>7.858229037285223E-06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>1.334605</v>
-      </c>
-      <c r="H24">
-        <v>4.003814999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.0003369623860921186</v>
-      </c>
-      <c r="J24">
-        <v>0.0003369623860921186</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>48.69315599999999</v>
-      </c>
-      <c r="N24">
-        <v>146.079468</v>
-      </c>
-      <c r="O24">
-        <v>0.3509195348041114</v>
-      </c>
-      <c r="P24">
-        <v>0.3509195348041114</v>
-      </c>
-      <c r="Q24">
-        <v>64.98612946337998</v>
-      </c>
-      <c r="R24">
-        <v>584.8751651704199</v>
-      </c>
-      <c r="S24">
-        <v>0.0001182466837739297</v>
-      </c>
-      <c r="T24">
-        <v>0.0001182466837739296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>1.334605</v>
-      </c>
-      <c r="H25">
-        <v>4.003814999999999</v>
-      </c>
-      <c r="I25">
-        <v>0.0003369623860921186</v>
-      </c>
-      <c r="J25">
-        <v>0.0003369623860921186</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.1183283333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.354985</v>
-      </c>
-      <c r="O25">
-        <v>0.0008527630389675126</v>
-      </c>
-      <c r="P25">
-        <v>0.0008527630389675126</v>
-      </c>
-      <c r="Q25">
-        <v>0.1579215853083333</v>
-      </c>
-      <c r="R25">
-        <v>1.421294267775</v>
-      </c>
-      <c r="S25">
-        <v>2.873490683816594E-07</v>
-      </c>
-      <c r="T25">
-        <v>2.873490683816593E-07</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>1.334605</v>
-      </c>
-      <c r="H26">
-        <v>4.003814999999999</v>
-      </c>
-      <c r="I26">
-        <v>0.0003369623860921186</v>
-      </c>
-      <c r="J26">
-        <v>0.0003369623860921186</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>84.46143500000001</v>
-      </c>
-      <c r="N26">
-        <v>253.384305</v>
-      </c>
-      <c r="O26">
-        <v>0.608692677038385</v>
-      </c>
-      <c r="P26">
-        <v>0.608692677038385</v>
-      </c>
-      <c r="Q26">
-        <v>112.722653458175</v>
-      </c>
-      <c r="R26">
-        <v>1014.503881123575</v>
-      </c>
-      <c r="S26">
-        <v>0.0002051065368516536</v>
-      </c>
-      <c r="T26">
-        <v>0.0002051065368516535</v>
+        <v>0.0003534766729248142</v>
       </c>
     </row>
   </sheetData>
